--- a/Data/5 - dummy project plan.xlsx
+++ b/Data/5 - dummy project plan.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avaisanen\Documents\My Tableau Repository\TUG-materiaalit\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\avaisanen\Documents\GitHub\Tableau\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13410" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tasks" sheetId="1" r:id="rId1"/>
@@ -116,9 +116,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Acceptance of static data</t>
-  </si>
-  <si>
     <t>Acceptance of interfaces</t>
   </si>
   <si>
@@ -288,6 +285,9 @@
   </si>
   <si>
     <t>Data review</t>
+  </si>
+  <si>
+    <t>Acceptance of data insertion</t>
   </si>
 </sst>
 </file>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -698,7 +698,7 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -795,7 +795,7 @@
         <v>1 week</v>
       </c>
       <c r="D5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -817,7 +817,7 @@
         <v>1 week</v>
       </c>
       <c r="D6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -839,7 +839,7 @@
         <v>1 week</v>
       </c>
       <c r="D7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -861,7 +861,7 @@
         <v>1 week</v>
       </c>
       <c r="D8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -883,7 +883,7 @@
         <v>1 week</v>
       </c>
       <c r="D9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -898,7 +898,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="2" t="str">
         <f t="shared" si="1"/>
@@ -920,14 +920,14 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2 weeks</v>
       </c>
       <c r="D11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -942,14 +942,14 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2 weeks</v>
       </c>
       <c r="D12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -964,14 +964,14 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2 weeks</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -986,14 +986,14 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C14" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1 week</v>
       </c>
       <c r="D14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E14">
         <v>5</v>
@@ -1037,7 +1037,7 @@
         <v>3 weeks</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E16">
         <v>6</v>
@@ -1059,7 +1059,7 @@
         <v>1 week</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17">
         <v>8</v>
@@ -1074,14 +1074,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2" t="str">
+        <f t="shared" si="1"/>
+        <v>1 week</v>
+      </c>
+      <c r="D18" t="s">
         <v>56</v>
-      </c>
-      <c r="C18" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1 week</v>
-      </c>
-      <c r="D18" t="s">
-        <v>57</v>
       </c>
       <c r="E18">
         <v>9</v>
@@ -1096,14 +1096,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C19" s="2" t="str">
         <f t="shared" si="1"/>
         <v>3 weeks</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E19">
         <v>9</v>
@@ -1118,14 +1118,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1 week</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>12</v>
@@ -1140,14 +1140,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1 week</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>12</v>
@@ -1162,14 +1162,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2 weeks</v>
       </c>
       <c r="D22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E22">
         <v>12</v>
@@ -1184,14 +1184,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="2" t="str">
         <f t="shared" si="1"/>
         <v>2 weeks</v>
       </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23">
         <v>12</v>
@@ -1235,7 +1235,7 @@
         <v>1 week</v>
       </c>
       <c r="D25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E25">
         <v>14</v>
@@ -1257,7 +1257,7 @@
         <v>1 week</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E26">
         <v>14</v>
@@ -1279,7 +1279,7 @@
         <v>1 week</v>
       </c>
       <c r="D27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E27">
         <v>15</v>
@@ -1301,7 +1301,7 @@
         <v>1 week</v>
       </c>
       <c r="D28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E28">
         <v>15</v>
@@ -1492,14 +1492,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2" t="str">
         <f t="shared" si="1"/>
         <v>1 week</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E37">
         <v>21</v>
@@ -1536,7 +1536,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C39" s="2" t="str">
         <f t="shared" si="1"/>
@@ -1563,7 +1563,7 @@
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1575,7 +1575,7 @@
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1600,10 +1600,10 @@
         <v>Review data insertion</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2">
         <f>tasks!E14+tasks!F14</f>
@@ -1620,10 +1620,10 @@
         <v>Output interfaces</v>
       </c>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
         <v>32</v>
-      </c>
-      <c r="D3" t="s">
-        <v>33</v>
       </c>
       <c r="E3">
         <f>tasks!E17+tasks!F17</f>
@@ -1640,10 +1640,10 @@
         <v>Review module installations and functionality</v>
       </c>
       <c r="C4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <f>tasks!E23+tasks!F23</f>
@@ -1660,10 +1660,10 @@
         <v>Process and workflow training</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5">
         <f>tasks!E26+tasks!F26</f>
@@ -1680,10 +1680,10 @@
         <v>Enhancements raised by UAT</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E6">
         <f>tasks!E36+tasks!F36</f>
@@ -1700,10 +1700,10 @@
         <v>Insert dynamic data into system</v>
       </c>
       <c r="C7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E7">
         <f>tasks!E37+tasks!F37</f>
@@ -1720,10 +1720,10 @@
         <v>FINALE</v>
       </c>
       <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
         <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
       </c>
       <c r="E8">
         <f>tasks!E39+tasks!F39</f>
@@ -1739,8 +1739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1757,7 +1757,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>4</v>
@@ -1766,19 +1766,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>40</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>41</v>
       </c>
       <c r="I1" s="1"/>
     </row>
@@ -1796,10 +1796,10 @@
         <v>Project management</v>
       </c>
       <c r="D2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H2" s="4">
         <v>0.4</v>
@@ -1820,16 +1820,16 @@
         <v>Installing test environment</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F3" s="5">
         <v>43025</v>
       </c>
       <c r="G3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="4">
         <v>1</v>
@@ -1850,16 +1850,16 @@
         <v>Installing production environment</v>
       </c>
       <c r="D4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="5">
         <v>43026</v>
       </c>
       <c r="G4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H4" s="4">
         <v>0.33</v>
@@ -1879,16 +1879,16 @@
         <v>Workshop 1</v>
       </c>
       <c r="D5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5" s="5">
         <v>43028</v>
       </c>
       <c r="G5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -1908,16 +1908,16 @@
         <v>Workshop 2</v>
       </c>
       <c r="D6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="5">
         <v>43030</v>
       </c>
       <c r="G6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
@@ -1937,16 +1937,16 @@
         <v>Workshop 3</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" s="5">
         <v>43032</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
@@ -1966,16 +1966,16 @@
         <v>Workshop 4</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5">
         <v>43033</v>
       </c>
       <c r="G8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
@@ -1995,16 +1995,16 @@
         <v>Workshop 5</v>
       </c>
       <c r="D9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F9" s="5">
         <v>43036</v>
       </c>
       <c r="G9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
@@ -2024,16 +2024,16 @@
         <v>System Overview Training</v>
       </c>
       <c r="D10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F10" s="5">
         <v>43038</v>
       </c>
       <c r="G10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H10" s="4">
         <v>0.33</v>
@@ -2053,16 +2053,16 @@
         <v>Data Collation</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F11" s="5">
         <v>43040</v>
       </c>
       <c r="G11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H11" s="4">
         <v>0.4</v>
@@ -2082,16 +2082,16 @@
         <v>More data input</v>
       </c>
       <c r="D12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F12" s="5">
         <v>43041</v>
       </c>
       <c r="G12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H12" s="4">
         <v>0.67</v>
@@ -2111,10 +2111,10 @@
         <v>Insert all that is left</v>
       </c>
       <c r="D13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H13" s="4">
         <v>0.33</v>
@@ -2134,16 +2134,16 @@
         <v>Review data insertion</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E14" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F14" s="5">
         <v>43041</v>
       </c>
       <c r="G14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H14" s="4">
         <v>0.15</v>
@@ -2163,10 +2163,10 @@
         <v>Technical setup of interfaces</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2183,10 +2183,10 @@
         <v>Input interfaces</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2203,10 +2203,10 @@
         <v>Output interfaces</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2223,10 +2223,10 @@
         <v>Validate scope</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2243,10 +2243,10 @@
         <v>Train users</v>
       </c>
       <c r="D19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,7 +2263,7 @@
         <v>Module A</v>
       </c>
       <c r="G20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>Module B</v>
       </c>
       <c r="G21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -2297,7 +2297,7 @@
         <v>Module C</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -2314,7 +2314,7 @@
         <v>Review module installations and functionality</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -2331,7 +2331,7 @@
         <v>Scope of security requirements workshop</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -2348,7 +2348,7 @@
         <v>Defining and implementing security settings</v>
       </c>
       <c r="G25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -2365,7 +2365,7 @@
         <v>Process and workflow training</v>
       </c>
       <c r="G26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -2382,7 +2382,7 @@
         <v>Monitoring for input interfaces</v>
       </c>
       <c r="G27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -2399,7 +2399,7 @@
         <v>Monitoring for output interfaces</v>
       </c>
       <c r="G28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -2416,7 +2416,7 @@
         <v>Preparing disaster recovery plan</v>
       </c>
       <c r="G29" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -2433,7 +2433,7 @@
         <v>Preparing test plan: UAT and system testing</v>
       </c>
       <c r="G30" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -2450,7 +2450,7 @@
         <v>Preparing training</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -2467,7 +2467,7 @@
         <v>Preparing support guide</v>
       </c>
       <c r="G32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
@@ -2484,7 +2484,7 @@
         <v>User training</v>
       </c>
       <c r="G33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
@@ -2501,7 +2501,7 @@
         <v>System testing</v>
       </c>
       <c r="G34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
@@ -2518,7 +2518,7 @@
         <v>User testing</v>
       </c>
       <c r="G35" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>Enhancements raised by UAT</v>
       </c>
       <c r="G36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
@@ -2552,7 +2552,7 @@
         <v>Insert dynamic data into system</v>
       </c>
       <c r="G37" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2569,7 +2569,7 @@
         <v>Use the system for a while before going live</v>
       </c>
       <c r="G38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
@@ -2586,7 +2586,7 @@
         <v>FINALE</v>
       </c>
       <c r="G39" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
@@ -2615,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H40" s="4">
         <f>1-H2</f>
@@ -2648,7 +2648,7 @@
         <v>43025</v>
       </c>
       <c r="G41" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H41" s="4">
         <f t="shared" ref="H41:H77" si="1">1-H3</f>
@@ -2681,7 +2681,7 @@
         <v>43026</v>
       </c>
       <c r="G42" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H42" s="4">
         <f t="shared" si="1"/>
@@ -2714,7 +2714,7 @@
         <v>43028</v>
       </c>
       <c r="G43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H43" s="4">
         <f t="shared" si="1"/>
@@ -2747,7 +2747,7 @@
         <v>43030</v>
       </c>
       <c r="G44" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H44" s="4">
         <f t="shared" si="1"/>
@@ -2780,7 +2780,7 @@
         <v>43032</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H45" s="4">
         <f t="shared" si="1"/>
@@ -2813,7 +2813,7 @@
         <v>43033</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H46" s="4">
         <f t="shared" si="1"/>
@@ -2846,7 +2846,7 @@
         <v>43036</v>
       </c>
       <c r="G47" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H47" s="4">
         <f t="shared" si="1"/>
@@ -2879,7 +2879,7 @@
         <v>43038</v>
       </c>
       <c r="G48" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H48" s="4">
         <f t="shared" si="1"/>
@@ -2912,7 +2912,7 @@
         <v>43040</v>
       </c>
       <c r="G49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H49" s="4">
         <f t="shared" si="1"/>
@@ -2945,7 +2945,7 @@
         <v>43041</v>
       </c>
       <c r="G50" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H50" s="4">
         <f t="shared" si="1"/>
@@ -2978,7 +2978,7 @@
         <v>0</v>
       </c>
       <c r="G51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H51" s="4">
         <f t="shared" si="1"/>
@@ -3011,7 +3011,7 @@
         <v>43041</v>
       </c>
       <c r="G52" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H52" s="4">
         <f t="shared" si="1"/>
@@ -3044,7 +3044,7 @@
         <v>0</v>
       </c>
       <c r="G53" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H53" s="4">
         <f t="shared" si="1"/>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="G54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H54" s="4">
         <f t="shared" si="1"/>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="G55" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H55" s="4">
         <f t="shared" si="1"/>
@@ -3143,7 +3143,7 @@
         <v>0</v>
       </c>
       <c r="G56" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H56" s="4">
         <f t="shared" si="1"/>
@@ -3176,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="G57" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H57" s="4">
         <f t="shared" si="1"/>
@@ -3209,7 +3209,7 @@
         <v>0</v>
       </c>
       <c r="G58" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H58" s="4">
         <f t="shared" si="1"/>
@@ -3242,7 +3242,7 @@
         <v>0</v>
       </c>
       <c r="G59" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H59" s="4">
         <f t="shared" si="1"/>
@@ -3275,7 +3275,7 @@
         <v>0</v>
       </c>
       <c r="G60" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H60" s="4">
         <f t="shared" si="1"/>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="G61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H61" s="4">
         <f t="shared" si="1"/>
@@ -3341,7 +3341,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H62" s="4">
         <f t="shared" si="1"/>
@@ -3374,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="G63" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H63" s="4">
         <f t="shared" si="1"/>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="G64" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H64" s="4">
         <f t="shared" si="1"/>
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
       <c r="G65" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H65" s="4">
         <f t="shared" si="1"/>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="G66" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H66" s="4">
         <f t="shared" si="1"/>
@@ -3506,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="G67" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H67" s="4">
         <f t="shared" si="1"/>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="G68" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H68" s="4">
         <f t="shared" si="1"/>
@@ -3572,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="G69" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H69" s="4">
         <f t="shared" si="1"/>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="G70" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H70" s="4">
         <f t="shared" si="1"/>
@@ -3638,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="G71" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H71" s="4">
         <f t="shared" si="1"/>
@@ -3671,7 +3671,7 @@
         <v>0</v>
       </c>
       <c r="G72" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H72" s="4">
         <f t="shared" si="1"/>
@@ -3704,7 +3704,7 @@
         <v>0</v>
       </c>
       <c r="G73" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H73" s="4">
         <f t="shared" si="1"/>
@@ -3737,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H74" s="4">
         <f t="shared" si="1"/>
@@ -3770,7 +3770,7 @@
         <v>0</v>
       </c>
       <c r="G75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H75" s="4">
         <f t="shared" si="1"/>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="G76" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H76" s="4">
         <f t="shared" si="1"/>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="G77" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H77" s="4">
         <f t="shared" si="1"/>
